--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2158858.401079606</v>
+        <v>2156601.379170522</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836233</v>
+        <v>6654055.582836234</v>
       </c>
     </row>
     <row r="8">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>362.4006936231289</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>346.6999128968763</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>63.57678144609376</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>8.78742075103631</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>287.1295912089695</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1.332975795529715</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1096,22 +1096,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>156.1271626621472</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>27.37301815328992</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>181.2178631822723</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>284.56151600587</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>59.7121540676148</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>50.55596175061093</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1537,13 +1537,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>12.4919649909434</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983812</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>15.42290135054989</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>46.63843252358279</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>52.23490948285941</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>120.6353666620237</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,10 +2132,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>151.8518738257485</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>71.49367430371645</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>133.2205257453332</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2536,13 +2536,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>261.6642522304697</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>74.75769145492406</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>28.59202620056953</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2767,7 +2767,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2950,10 +2950,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.6898441249712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3004,7 +3004,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>45.10723554369662</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3196,16 +3196,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.40065114612624</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3241,13 +3241,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>224.8997419050259</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,10 +3317,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>178.7757248935319</v>
       </c>
       <c r="C37" t="n">
-        <v>166.1905658102224</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>147.5592177298069</v>
       </c>
       <c r="E37" t="n">
         <v>145.3777073581637</v>
       </c>
       <c r="F37" t="n">
-        <v>144.3647927345258</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.9695529706228</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>143.6987596259154</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>95.29616512143267</v>
+        <v>95.29616512143268</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,22 +3472,22 @@
         <v>87.87589738164191</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>188.7127700430365</v>
       </c>
       <c r="T37" t="n">
-        <v>209.4198666028068</v>
+        <v>218.4926939877638</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>285.1555829172074</v>
       </c>
       <c r="V37" t="n">
-        <v>251.0813880354226</v>
+        <v>0.2155932606150013</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>285.4667430481855</v>
       </c>
       <c r="X37" t="n">
-        <v>224.6534001006317</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>217.5283980636894</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,13 +3554,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572835</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3758,7 +3758,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433897</v>
+        <v>98.44591140433886</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,22 +4135,22 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
         <v>49.37728379124552</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1546.944160717209</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1177.981643776797</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>819.715945170047</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>433.9276925718028</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2323.683332757143</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>1933.544000781331</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4407,31 +4407,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>663.910013048764</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1919.063478780785</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="C5" t="n">
-        <v>1550.100961840373</v>
+        <v>1249.542876750359</v>
       </c>
       <c r="D5" t="n">
-        <v>1191.835263233623</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2695.802650820718</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2695.802650820718</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2695.802650820718</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2695.802650820718</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W5" t="n">
-        <v>2695.802650820718</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X5" t="n">
-        <v>2695.802650820718</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="Y5" t="n">
-        <v>2305.663318844906</v>
+        <v>1618.50539369077</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>570.4247794971948</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T7" t="n">
-        <v>343.1165921657965</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036446</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1865.381229508783</v>
+        <v>1528.349585887293</v>
       </c>
       <c r="C8" t="n">
-        <v>1496.418712568371</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D8" t="n">
-        <v>1138.15301396162</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E8" t="n">
-        <v>752.3647613633761</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>341.3788565737686</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1528.349585887293</v>
       </c>
       <c r="X8" t="n">
-        <v>2642.120401548716</v>
+        <v>1528.349585887293</v>
       </c>
       <c r="Y8" t="n">
-        <v>2251.981069572904</v>
+        <v>1528.349585887293</v>
       </c>
     </row>
     <row r="9">
@@ -4896,10 +4896,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
         <v>200.8329293182748</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="11">
@@ -5018,22 +5018,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
@@ -5042,19 +5042,19 @@
         <v>451.8458144277728</v>
       </c>
       <c r="K11" t="n">
-        <v>785.6651881176192</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L11" t="n">
-        <v>1236.699401366028</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M11" t="n">
-        <v>2215.249704195856</v>
+        <v>2504.619866888351</v>
       </c>
       <c r="N11" t="n">
-        <v>3195.001976422503</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O11" t="n">
-        <v>3697.97444730184</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P11" t="n">
         <v>4195.497197679678</v>
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G12" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
@@ -5142,28 +5142,28 @@
         <v>2594.102460549551</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>499.6351384500829</v>
+        <v>340.7998052124422</v>
       </c>
       <c r="C13" t="n">
-        <v>499.6351384500829</v>
+        <v>340.7998052124422</v>
       </c>
       <c r="D13" t="n">
-        <v>499.6351384500829</v>
+        <v>340.7998052124422</v>
       </c>
       <c r="E13" t="n">
-        <v>351.7220448676898</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F13" t="n">
-        <v>339.1038984121913</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H13" t="n">
         <v>192.8867116300491</v>
@@ -5197,13 +5197,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K13" t="n">
         <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
         <v>1005.387693892251</v>
@@ -5215,7 +5215,7 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q13" t="n">
         <v>1956.343466104703</v>
@@ -5227,22 +5227,22 @@
         <v>1674.827124689057</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258583</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
         <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>909.27315417834</v>
+        <v>909.2731541783403</v>
       </c>
       <c r="W13" t="n">
-        <v>909.27315417834</v>
+        <v>619.8559841413796</v>
       </c>
       <c r="X13" t="n">
-        <v>681.2836032803226</v>
+        <v>391.8664332433623</v>
       </c>
       <c r="Y13" t="n">
-        <v>681.2836032803226</v>
+        <v>391.8664332433623</v>
       </c>
     </row>
     <row r="14">
@@ -5270,34 +5270,34 @@
         <v>435.1415336001587</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1237.706702364129</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2216.257005193957</v>
+        <v>2373.979363934262</v>
       </c>
       <c r="N14" t="n">
-        <v>3196.009277420604</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750059</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
@@ -5358,37 +5358,37 @@
         <v>189.2383039390116</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320238</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1120.662598458019</v>
+        <v>278.8425593065541</v>
       </c>
       <c r="C16" t="n">
-        <v>951.7264155301116</v>
+        <v>278.8425593065541</v>
       </c>
       <c r="D16" t="n">
-        <v>801.6097761177758</v>
+        <v>278.8425593065541</v>
       </c>
       <c r="E16" t="n">
-        <v>653.6966825353827</v>
+        <v>278.8425593065541</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374724</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121914</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5437,7 +5437,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5461,25 +5461,25 @@
         <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1866.513008862231</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1819.403481060632</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1530.300614186276</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1530.300614186276</v>
+        <v>909.2731541783413</v>
       </c>
       <c r="W16" t="n">
-        <v>1530.300614186276</v>
+        <v>909.2731541783413</v>
       </c>
       <c r="X16" t="n">
-        <v>1302.311063288258</v>
+        <v>681.2836032803239</v>
       </c>
       <c r="Y16" t="n">
-        <v>1302.311063288258</v>
+        <v>460.4910241367937</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5516,49 +5516,49 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.328657580449</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807095</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5583,7 +5583,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5592,25 +5592,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>391.8664332433625</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>391.8664332433625</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>391.8664332433625</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>391.8664332433625</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>391.8664332433625</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.670849844206</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
@@ -5692,10 +5692,10 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
         <v>1674.827124689058</v>
@@ -5707,16 +5707,16 @@
         <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783404</v>
+        <v>909.2731541783406</v>
       </c>
       <c r="W19" t="n">
-        <v>619.8559841413798</v>
+        <v>619.8559841413801</v>
       </c>
       <c r="X19" t="n">
-        <v>391.8664332433625</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>391.8664332433625</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5735,16 +5735,16 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
@@ -5756,16 +5756,16 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1237.706702364129</v>
+        <v>1352.099436442225</v>
       </c>
       <c r="M20" t="n">
-        <v>2216.257005193957</v>
+        <v>2330.649739272054</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420604</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750059</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P20" t="n">
         <v>4470.748294107237</v>
@@ -5786,16 +5786,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5805,34 +5805,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L21" t="n">
         <v>794.200663232024</v>
@@ -5850,19 +5850,19 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>409.4810578558177</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="C22" t="n">
-        <v>409.4810578558177</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D22" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5911,10 +5911,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5923,37 +5923,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1884.127633474687</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1692.441749301513</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1470.675133871039</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1181.572266996683</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V22" t="n">
-        <v>926.8877787907957</v>
+        <v>909.2731541783406</v>
       </c>
       <c r="W22" t="n">
-        <v>637.470608753835</v>
+        <v>619.85598414138</v>
       </c>
       <c r="X22" t="n">
-        <v>409.4810578558177</v>
+        <v>619.85598414138</v>
       </c>
       <c r="Y22" t="n">
-        <v>409.4810578558177</v>
+        <v>399.0634049978498</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5990,28 +5990,28 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1339.447785386687</v>
       </c>
       <c r="M23" t="n">
-        <v>2536.15366264131</v>
+        <v>2317.998088216515</v>
       </c>
       <c r="N23" t="n">
-        <v>3362.809616117416</v>
+        <v>3297.750360443162</v>
       </c>
       <c r="O23" t="n">
-        <v>3865.782086996753</v>
+        <v>3800.722831322499</v>
       </c>
       <c r="P23" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
         <v>4667.761053946815</v>
@@ -6020,19 +6020,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089891</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>506.8067350374723</v>
+        <v>399.0634049978501</v>
       </c>
       <c r="C25" t="n">
-        <v>506.8067350374723</v>
+        <v>230.1272220699431</v>
       </c>
       <c r="D25" t="n">
-        <v>506.8067350374723</v>
+        <v>230.1272220699431</v>
       </c>
       <c r="E25" t="n">
-        <v>506.8067350374723</v>
+        <v>230.1272220699431</v>
       </c>
       <c r="F25" t="n">
-        <v>506.8067350374723</v>
+        <v>230.1272220699431</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6148,7 +6148,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208126</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W25" t="n">
-        <v>734.7962859354897</v>
+        <v>619.8559841413802</v>
       </c>
       <c r="X25" t="n">
-        <v>506.8067350374723</v>
+        <v>619.8559841413802</v>
       </c>
       <c r="Y25" t="n">
-        <v>506.8067350374723</v>
+        <v>399.0634049978501</v>
       </c>
     </row>
     <row r="26">
@@ -6218,25 +6218,25 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>323.5285488293692</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>657.3479225192157</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O26" t="n">
         <v>3482.142110232732</v>
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390116</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193586</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L27" t="n">
         <v>794.200663232024</v>
@@ -6315,28 +6315,28 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.0738540998329</v>
+        <v>589.1512925299513</v>
       </c>
       <c r="C28" t="n">
-        <v>171.0738540998329</v>
+        <v>589.1512925299513</v>
       </c>
       <c r="D28" t="n">
-        <v>171.0738540998329</v>
+        <v>439.0346531176156</v>
       </c>
       <c r="E28" t="n">
-        <v>171.0738540998329</v>
+        <v>439.0346531176156</v>
       </c>
       <c r="F28" t="n">
-        <v>171.0738540998329</v>
+        <v>292.1447056197053</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>124.4418689944243</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>124.4418689944243</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6406,28 +6406,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384228</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V28" t="n">
-        <v>909.2731541783409</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W28" t="n">
-        <v>619.8559841413803</v>
+        <v>998.7893082582084</v>
       </c>
       <c r="X28" t="n">
-        <v>391.866433243363</v>
+        <v>770.7997573601911</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.0738540998329</v>
+        <v>770.7997573601911</v>
       </c>
     </row>
     <row r="29">
@@ -6440,52 +6440,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1971.087962216427</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M29" t="n">
-        <v>2504.619866888352</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N29" t="n">
-        <v>3051.398683947134</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O29" t="n">
-        <v>3757.39320666029</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
         <v>4667.761053946815</v>
@@ -6494,19 +6494,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6516,34 +6516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
         <v>794.2006632320242</v>
@@ -6558,22 +6558,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>260.9043113423046</v>
+        <v>414.6138567886368</v>
       </c>
       <c r="C31" t="n">
-        <v>260.9043113423046</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D31" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>260.9043113423045</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1407.497645073032</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208126</v>
+        <v>1152.813156867145</v>
       </c>
       <c r="W31" t="n">
-        <v>709.6864413838521</v>
+        <v>863.3959868301843</v>
       </c>
       <c r="X31" t="n">
-        <v>481.6968904858347</v>
+        <v>635.4064359321669</v>
       </c>
       <c r="Y31" t="n">
-        <v>260.9043113423046</v>
+        <v>414.6138567886368</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1732.058578925875</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2265.5904835978</v>
+        <v>2016.310259422545</v>
       </c>
       <c r="N32" t="n">
-        <v>2812.369300656582</v>
+        <v>2996.062531649191</v>
       </c>
       <c r="O32" t="n">
-        <v>3692.333950986037</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P32" t="n">
-        <v>4405.689038432983</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6753,70 +6753,70 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U33" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X33" t="n">
         <v>1346.568408282341</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>508.5026418377233</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="C34" t="n">
-        <v>508.5026418377233</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="D34" t="n">
-        <v>508.5026418377233</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="E34" t="n">
-        <v>360.5895482553302</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F34" t="n">
-        <v>360.5895482553303</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G34" t="n">
-        <v>192.886711630049</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H34" t="n">
-        <v>192.886711630049</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.670849844206</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
         <v>1005.387693892251</v>
@@ -6877,31 +6877,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1914.524626563162</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S34" t="n">
-        <v>1722.838742389988</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1501.072126959514</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1211.969260085158</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V34" t="n">
-        <v>957.2847718792708</v>
+        <v>1225.889052788861</v>
       </c>
       <c r="W34" t="n">
-        <v>957.2847718792708</v>
+        <v>936.4718827519</v>
       </c>
       <c r="X34" t="n">
-        <v>729.2952209812535</v>
+        <v>708.4823318538827</v>
       </c>
       <c r="Y34" t="n">
-        <v>508.5026418377233</v>
+        <v>487.6897527103525</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
@@ -6935,25 +6935,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2628.734306600802</v>
       </c>
       <c r="N35" t="n">
-        <v>2667.236715577531</v>
+        <v>3175.513123659584</v>
       </c>
       <c r="O35" t="n">
-        <v>3547.201365906985</v>
+        <v>4055.477773989039</v>
       </c>
       <c r="P35" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
         <v>4719.034655862919</v>
@@ -6968,13 +6968,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -6990,43 +6990,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
         <v>2125.96131142685</v>
@@ -7056,10 +7056,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.1444118432256</v>
+        <v>487.7156710235494</v>
       </c>
       <c r="C37" t="n">
-        <v>796.2751534490616</v>
+        <v>487.7156710235494</v>
       </c>
       <c r="D37" t="n">
-        <v>796.2751534490616</v>
+        <v>338.6659561449565</v>
       </c>
       <c r="E37" t="n">
-        <v>649.4289844004113</v>
+        <v>191.8197870963062</v>
       </c>
       <c r="F37" t="n">
-        <v>503.6059614362438</v>
+        <v>191.8197870963062</v>
       </c>
       <c r="G37" t="n">
-        <v>336.9700493447056</v>
+        <v>191.8197870963062</v>
       </c>
       <c r="H37" t="n">
         <v>191.8197870963062</v>
@@ -7093,7 +7093,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>141.7293596308513</v>
+        <v>141.7293596308515</v>
       </c>
       <c r="K37" t="n">
         <v>346.7622353152491</v>
@@ -7108,37 +7108,37 @@
         <v>1352.024534275723</v>
       </c>
       <c r="O37" t="n">
-        <v>1652.399825931658</v>
+        <v>1652.399825931657</v>
       </c>
       <c r="P37" t="n">
         <v>1886.053019100838</v>
       </c>
       <c r="Q37" t="n">
-        <v>1964.709007988875</v>
+        <v>1964.709007988874</v>
       </c>
       <c r="R37" t="n">
-        <v>1875.945475280146</v>
+        <v>1875.945475280145</v>
       </c>
       <c r="S37" t="n">
-        <v>1875.945475280146</v>
+        <v>1685.326515640714</v>
       </c>
       <c r="T37" t="n">
-        <v>1664.410256489432</v>
+        <v>1464.626824743983</v>
       </c>
       <c r="U37" t="n">
-        <v>1664.410256489432</v>
+        <v>1176.590882403369</v>
       </c>
       <c r="V37" t="n">
-        <v>1410.792692817287</v>
+        <v>1176.373111433051</v>
       </c>
       <c r="W37" t="n">
-        <v>1410.792692817287</v>
+        <v>888.0228659298335</v>
       </c>
       <c r="X37" t="n">
-        <v>1183.870066453013</v>
+        <v>888.0228659298335</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.1444118432256</v>
+        <v>668.2972113200462</v>
       </c>
     </row>
     <row r="38">
@@ -7151,16 +7151,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
@@ -7172,22 +7172,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>750.1800661608922</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1614.698881814247</v>
+        <v>1797.117834600129</v>
       </c>
       <c r="M38" t="n">
-        <v>2593.249184644075</v>
+        <v>2330.649739272054</v>
       </c>
       <c r="N38" t="n">
-        <v>3573.001456870722</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750059</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P38" t="n">
         <v>4470.748294107237</v>
@@ -7211,7 +7211,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L39" t="n">
         <v>794.200663232024</v>
@@ -7263,10 +7263,10 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
         <v>2436.460902902953</v>
@@ -7293,10 +7293,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215058</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416721</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774098</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430901</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932532</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160454</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7336,7 +7336,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7351,13 +7351,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R40" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S40" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T40" t="n">
         <v>1967.452490122057</v>
@@ -7375,7 +7375,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036717</v>
+        <v>922.7139997036722</v>
       </c>
     </row>
     <row r="41">
@@ -7391,46 +7391,46 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K41" t="n">
-        <v>786.6724891157196</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L41" t="n">
-        <v>1237.706702364128</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M41" t="n">
-        <v>2216.257005193957</v>
+        <v>1999.417367126749</v>
       </c>
       <c r="N41" t="n">
-        <v>3196.009277420604</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7464,37 +7464,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089893</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C43" t="n">
-        <v>667.028617841672</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774096</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430898</v>
+        <v>463.8981507430897</v>
       </c>
       <c r="F43" t="n">
         <v>364.4578361932524</v>
@@ -7573,7 +7573,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7588,13 +7588,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R43" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S43" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T43" t="n">
         <v>1967.452490122057</v>
@@ -7612,7 +7612,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7646,22 +7646,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L44" t="n">
-        <v>1586.925993846824</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M44" t="n">
-        <v>2120.457898518748</v>
+        <v>2006.065164440652</v>
       </c>
       <c r="N44" t="n">
-        <v>2667.236715577531</v>
+        <v>2985.817436667298</v>
       </c>
       <c r="O44" t="n">
-        <v>3547.201365906985</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P44" t="n">
         <v>4260.556453353931</v>
@@ -7716,7 +7716,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468565</v>
@@ -7725,13 +7725,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K45" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430893</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G46" t="n">
         <v>244.2046325160447</v>
@@ -7810,7 +7810,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7837,19 +7837,19 @@
         <v>1967.452490122057</v>
       </c>
       <c r="U46" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V46" t="n">
         <v>1518.56440093796</v>
       </c>
       <c r="W46" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X46" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,22 +8690,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>248.8400772687169</v>
       </c>
       <c r="P11" t="n">
-        <v>103.7862464855155</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,19 +8924,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>170.1140909277313</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>285.7011105564208</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -8945,10 +8945,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9164,28 +9164,28 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>64.28566532692525</v>
       </c>
       <c r="O17" t="n">
-        <v>133.253057640027</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9404,19 +9404,19 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>170.1140909277313</v>
+        <v>285.6623071682326</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,16 +9638,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>103.7862464855133</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>282.7041781993166</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>39.48321557772658</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>329.4296048068269</v>
       </c>
       <c r="O29" t="n">
-        <v>205.0727796301204</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,28 +10346,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>176.2173930448424</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>304.7351805999715</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10586,25 +10586,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>29.61882225792135</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>20.70318561719154</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10820,25 +10820,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>133.2530576400263</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>241.9338129178262</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>170.1140909277306</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>231.5010718068654</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11297,22 +11297,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>29.61882225792135</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>238.2160185885856</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>129.2760184313264</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>132.9290830319878</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>129.9981466723814</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,16 +23701,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>172.9105167525864</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>113.7908987761688</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>105.0742887270135</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>27.9801063561888</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>17.4384783663309</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>32.80528251369505</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>24.85874610612133</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>91.26811680410417</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>67.76039420926855</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,10 +24838,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>2.335964134057005</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>241.1046026619162</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25084,10 +25084,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>47.53150152392109</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,13 +25129,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>27.23790141880212</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,25 +25309,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>178.7757248935319</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>166.1905658102224</v>
       </c>
       <c r="D37" t="n">
-        <v>147.5592177298069</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>144.3647927345258</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.9695529706228</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>143.6987596259154</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25360,22 +25360,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>188.7127700430365</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>9.072827384956929</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>285.1555829172074</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>250.8657947748076</v>
       </c>
       <c r="W37" t="n">
-        <v>285.4667430481855</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>224.6534001006317</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>-1.4210854715202e-13</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.842170943040401e-13</v>
+        <v>-1.84741111297626e-13</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>851861.9165233859</v>
+        <v>851861.9165233861</v>
       </c>
     </row>
     <row r="14">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049992</v>
+        <v>574729.238904999</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
+        <v>555914.5016417765</v>
+      </c>
+      <c r="F2" t="n">
         <v>555914.5016417764</v>
       </c>
-      <c r="F2" t="n">
-        <v>555914.5016417765</v>
-      </c>
       <c r="G2" t="n">
+        <v>555914.5016417762</v>
+      </c>
+      <c r="H2" t="n">
         <v>555914.5016417763</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>555914.5016417766</v>
+      </c>
+      <c r="J2" t="n">
         <v>555914.5016417764</v>
-      </c>
-      <c r="I2" t="n">
-        <v>555914.5016417764</v>
-      </c>
-      <c r="J2" t="n">
-        <v>555914.5016417763</v>
       </c>
       <c r="K2" t="n">
         <v>555914.5016417763</v>
       </c>
       <c r="L2" t="n">
-        <v>555914.5016417762</v>
+        <v>555914.5016417765</v>
       </c>
       <c r="M2" t="n">
-        <v>556337.5587559171</v>
+        <v>556337.558755917</v>
       </c>
       <c r="N2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="O2" t="n">
         <v>574729.2389049989</v>
       </c>
       <c r="P2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.238904999</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>36735.10506414971</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
         <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
+        <v>18148.49231918995</v>
+      </c>
+      <c r="F4" t="n">
         <v>18148.49231918993</v>
       </c>
-      <c r="F4" t="n">
-        <v>18148.49231918995</v>
-      </c>
       <c r="G4" t="n">
-        <v>18148.49231918996</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="I4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="J4" t="n">
         <v>18148.49231918994</v>
@@ -26445,19 +26445,19 @@
         <v>18148.49231918994</v>
       </c>
       <c r="L4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="M4" t="n">
-        <v>18496.05294811453</v>
+        <v>18496.05294811455</v>
       </c>
       <c r="N4" t="n">
         <v>33605.65329740898</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.65329740901</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740899</v>
+        <v>33605.65329740902</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340947</v>
@@ -26479,13 +26479,13 @@
         <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371366</v>
@@ -26494,7 +26494,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371364</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-281446.4052300827</v>
+        <v>-281446.4052300829</v>
       </c>
       <c r="C6" t="n">
-        <v>308521.4739844615</v>
+        <v>308521.4739844613</v>
       </c>
       <c r="D6" t="n">
-        <v>308521.4739844615</v>
+        <v>308521.4739844611</v>
       </c>
       <c r="E6" t="n">
-        <v>-285994.9229245337</v>
+        <v>-286062.1184147594</v>
       </c>
       <c r="F6" t="n">
-        <v>441382.491068873</v>
+        <v>441315.295578647</v>
       </c>
       <c r="G6" t="n">
-        <v>441382.4910688727</v>
+        <v>441315.2955786468</v>
       </c>
       <c r="H6" t="n">
-        <v>441382.4910688729</v>
+        <v>441315.2955786469</v>
       </c>
       <c r="I6" t="n">
-        <v>441382.4910688728</v>
+        <v>441315.2955786472</v>
       </c>
       <c r="J6" t="n">
-        <v>264959.2718762797</v>
+        <v>264892.076386054</v>
       </c>
       <c r="K6" t="n">
-        <v>441382.4910688727</v>
+        <v>441315.2955786469</v>
       </c>
       <c r="L6" t="n">
-        <v>441382.4910688726</v>
+        <v>441315.2955786473</v>
       </c>
       <c r="M6" t="n">
-        <v>310881.8701585789</v>
+        <v>310816.1855866177</v>
       </c>
       <c r="N6" t="n">
-        <v>404055.8095293379</v>
+        <v>404055.8095293381</v>
       </c>
       <c r="O6" t="n">
-        <v>440790.9145934877</v>
+        <v>440790.9145934878</v>
       </c>
       <c r="P6" t="n">
         <v>440790.9145934878</v>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405428</v>
+        <v>1.056255288405432</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405428</v>
+        <v>1.056255288405432</v>
       </c>
       <c r="N2" t="n">
-        <v>45.91888133018713</v>
+        <v>45.91888133018714</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>44.47535211858258</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>82.85718120047541</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,16 +27591,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>277.7355775855547</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>67.55345041171341</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>173.0827370134418</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>56.01837628787166</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>197.6620873047944</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>184.0550285887353</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>129.222654014925</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060686</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,10 +28068,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>192.4254892562132</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-6.869152582819253e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.056255288405428</v>
+        <v>1.056255288405432</v>
       </c>
       <c r="C37" t="n">
-        <v>1.056255288405428</v>
+        <v>1.056255288405432</v>
       </c>
       <c r="D37" t="n">
-        <v>1.056255288405428</v>
+        <v>1.056255288405432</v>
       </c>
       <c r="E37" t="n">
-        <v>1.056255288405428</v>
+        <v>1.056255288405432</v>
       </c>
       <c r="F37" t="n">
-        <v>1.056255288405428</v>
+        <v>1.056255288405432</v>
       </c>
       <c r="G37" t="n">
-        <v>1.056255288405428</v>
+        <v>1.056255288405432</v>
       </c>
       <c r="H37" t="n">
-        <v>1.056255288405428</v>
+        <v>1.056255288405432</v>
       </c>
       <c r="I37" t="n">
-        <v>1.056255288405428</v>
+        <v>1.056255288405432</v>
       </c>
       <c r="J37" t="n">
-        <v>1.056255288405428</v>
+        <v>1.056255288405432</v>
       </c>
       <c r="K37" t="n">
-        <v>1.056255288405428</v>
+        <v>1.056255288405432</v>
       </c>
       <c r="L37" t="n">
-        <v>1.056255288405428</v>
+        <v>1.056255288405432</v>
       </c>
       <c r="M37" t="n">
-        <v>1.056255288405428</v>
+        <v>1.056255288405432</v>
       </c>
       <c r="N37" t="n">
-        <v>1.056255288405428</v>
+        <v>1.056255288405432</v>
       </c>
       <c r="O37" t="n">
-        <v>1.056255288405428</v>
+        <v>1.056255288405432</v>
       </c>
       <c r="P37" t="n">
-        <v>1.056255288405428</v>
+        <v>1.056255288405432</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.056255288405428</v>
+        <v>1.056255288405432</v>
       </c>
       <c r="R37" t="n">
-        <v>1.056255288405428</v>
+        <v>1.056255288405432</v>
       </c>
       <c r="S37" t="n">
-        <v>1.056255288405428</v>
+        <v>1.056255288405432</v>
       </c>
       <c r="T37" t="n">
-        <v>1.056255288405428</v>
+        <v>1.056255288405432</v>
       </c>
       <c r="U37" t="n">
-        <v>1.056255288405428</v>
+        <v>1.056255288405432</v>
       </c>
       <c r="V37" t="n">
-        <v>1.056255288405428</v>
+        <v>1.056255288405432</v>
       </c>
       <c r="W37" t="n">
-        <v>1.056255288405428</v>
+        <v>1.056255288405432</v>
       </c>
       <c r="X37" t="n">
-        <v>1.056255288405428</v>
+        <v>1.056255288405432</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.056255288405428</v>
+        <v>1.056255288405432</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33269,7 +33269,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N30" t="n">
         <v>609.6478166837925</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,22 +35410,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M11" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>756.8930781569359</v>
       </c>
       <c r="P11" t="n">
-        <v>502.5482327048871</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
         <v>463.1092954636241</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7042053200632</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>988.434649323059</v>
+        <v>824.6222263866475</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,7 +35805,7 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35817,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248955</v>
+        <v>616.5875007398367</v>
       </c>
       <c r="O17" t="n">
-        <v>641.306058528246</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7042053200632</v>
+        <v>741.2524215605648</v>
       </c>
       <c r="M20" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,16 +36358,16 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>559.3763608778455</v>
       </c>
       <c r="M23" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>835.0060136122281</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
         <v>508.0530008882191</v>
@@ -36379,7 +36379,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>230.2702165464391</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
@@ -36607,7 +36607,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K28" t="n">
         <v>206.0476595443196</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>881.7314402197384</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1257805183395</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,7 +36917,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N30" t="n">
         <v>478.3061046004592</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>631.8075074371745</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>812.7881814881905</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597718</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37239,13 +37239,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,28 +37306,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N35" t="n">
-        <v>581.9206576708328</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>419.4651718365632</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>46.63467190147164</v>
+        <v>46.63467190147163</v>
       </c>
       <c r="K37" t="n">
-        <v>207.103914832725</v>
+        <v>207.1039148327249</v>
       </c>
       <c r="L37" t="n">
         <v>320.8136274586035</v>
       </c>
       <c r="M37" t="n">
-        <v>348.6896346818893</v>
+        <v>348.6896346818892</v>
       </c>
       <c r="N37" t="n">
         <v>345.9132014559455</v>
@@ -37479,10 +37479,10 @@
         <v>303.4093855110452</v>
       </c>
       <c r="P37" t="n">
-        <v>236.0133264335159</v>
+        <v>236.0133264335158</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.45049382629908</v>
+        <v>79.45049382629907</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>470.4443441954267</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427824</v>
+        <v>697.5239273101583</v>
       </c>
       <c r="M38" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165875</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>507.3053774831311</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>770.422187637092</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -37944,16 +37944,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38017,28 +38017,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>485.2089366502535</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>777.1371344188121</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38181,16 +38181,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
